--- a/data/trans_dic/P19C02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19C02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,02%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>12,27; 30,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>17,06; 34,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>20,99; 38,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>31,45; 52,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>20,16; 36,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>20,72; 40,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>22,45; 40,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>35,16; 49,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>18,64; 31,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>20,67; 33,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>23,62; 36,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>36,49; 48,38</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,92%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>17,65; 25,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>17,89; 25,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>23,63; 33,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>38,86; 47,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>17,42; 25,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>24,65; 32,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>25,89; 34,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>46,7; 53,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>18,64; 24,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>22,35; 28,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>26,01; 32,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>43,87; 49,54</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,92%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>23,4; 30,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>27,3; 33,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>33,25; 40,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>40,64; 53,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>25,42; 32,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>23,61; 29,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>34,99; 41,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>49,49; 55,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>25,46; 30,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>26,34; 30,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>35,08; 40,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>46,33; 53,3</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,96%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>26,04; 34,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>25,06; 32,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>28,67; 37,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>40,06; 48,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>29,68; 37,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>30,36; 37,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>36,01; 44,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>40,71; 67,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>28,89; 34,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>28,78; 34,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>34,18; 39,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>41,94; 61,02</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,02%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>30,52; 37,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>32,66; 39,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>34,49; 41,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>45,43; 52,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>27,8; 34,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>32,35; 38,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>35,21; 41,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>45,73; 52,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>29,88; 34,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>33,28; 37,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>35,67; 40,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>46,77; 51,38</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,56%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>26,88; 30,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,83; 31,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>32,97; 36,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>44,25; 49,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,48; 30,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>29,4; 32,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>35,27; 39,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>47,89; 55,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,61; 30,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>29,34; 31,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>34,79; 37,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>46,85; 51,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>45,11%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,27; 30,69</t>
+          <t>17,82; 25,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 34,23</t>
+          <t>18,43; 25,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,99; 38,81</t>
+          <t>24,49; 32,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,45; 52,42</t>
+          <t>37,21; 46,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 36,23</t>
+          <t>19,26; 26,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,72; 40,54</t>
+          <t>24,86; 32,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,45; 40,29</t>
+          <t>26,28; 34,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,16; 49,15</t>
+          <t>45,15; 51,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,64; 31,11</t>
+          <t>19,78; 24,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,67; 33,25</t>
+          <t>23,04; 28,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,62; 36,46</t>
+          <t>26,43; 31,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,49; 48,38</t>
+          <t>42,49; 47,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>51,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>45,25%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,65; 25,94</t>
+          <t>23,4; 30,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 25,27</t>
+          <t>27,3; 33,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,63; 33,11</t>
+          <t>33,25; 40,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,86; 47,87</t>
+          <t>20,56; 52,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,42; 25,27</t>
+          <t>25,42; 32,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,65; 32,97</t>
+          <t>23,61; 29,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,89; 34,41</t>
+          <t>34,99; 41,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,7; 53,85</t>
+          <t>48,64; 54,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,64; 24,33</t>
+          <t>25,46; 30,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,35; 28,0</t>
+          <t>26,34; 30,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,01; 32,39</t>
+          <t>35,08; 40,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,87; 49,54</t>
+          <t>28,9; 51,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>49,18%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>53,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>49,34%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,4; 30,82</t>
+          <t>26,04; 34,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,3; 33,64</t>
+          <t>25,06; 32,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,25; 40,62</t>
+          <t>28,67; 37,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,64; 53,49</t>
+          <t>39,76; 48,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,42; 32,11</t>
+          <t>29,68; 37,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,61; 29,71</t>
+          <t>30,36; 37,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,99; 41,87</t>
+          <t>36,01; 44,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,49; 55,21</t>
+          <t>38,46; 75,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,46; 30,11</t>
+          <t>28,89; 34,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,34; 30,61</t>
+          <t>28,78; 34,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,08; 40,1</t>
+          <t>34,18; 39,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,33; 53,3</t>
+          <t>40,9; 69,39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>48,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,18%</t>
+          <t>46,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>47,39%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,04; 34,27</t>
+          <t>30,52; 37,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,06; 32,69</t>
+          <t>32,66; 39,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,67; 37,35</t>
+          <t>34,49; 41,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,06; 48,56</t>
+          <t>45,32; 52,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,68; 37,48</t>
+          <t>27,8; 34,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,36; 37,97</t>
+          <t>32,35; 38,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,01; 44,38</t>
+          <t>35,21; 41,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,71; 67,2</t>
+          <t>36,84; 50,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 34,61</t>
+          <t>29,88; 34,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,34</t>
+          <t>33,28; 37,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,18; 39,78</t>
+          <t>35,67; 40,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>41,94; 61,02</t>
+          <t>41,69; 50,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>49,02%</t>
+          <t>46,78%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,52; 37,51</t>
+          <t>26,88; 30,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,66; 39,39</t>
+          <t>27,83; 31,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,49; 41,59</t>
+          <t>32,97; 36,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,43; 52,56</t>
+          <t>33,48; 47,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,8; 34,54</t>
+          <t>27,48; 30,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,35; 38,85</t>
+          <t>29,4; 32,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,21; 41,75</t>
+          <t>35,27; 39,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,73; 52,09</t>
+          <t>45,72; 59,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,88; 34,62</t>
+          <t>27,61; 30,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>33,28; 37,94</t>
+          <t>29,34; 31,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35,67; 40,75</t>
+          <t>34,79; 37,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>46,77; 51,38</t>
+          <t>41,74; 51,02</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>28,62%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>29,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>34,85%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>46,84%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>29,1%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>31,23%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>37,19%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>50,07%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>28,87%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>30,48%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>36,06%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>48,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>26,88; 30,5</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>27,83; 31,45</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>32,97; 36,78</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>44,25; 49,01</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>27,48; 30,88</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>29,4; 32,92</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>35,27; 39,0</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>47,89; 55,32</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>27,61; 30,05</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>29,34; 31,73</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>34,79; 37,42</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>46,85; 51,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19C02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,82; 25,35</t>
+          <t>17,8; 25,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 25,32</t>
+          <t>18,83; 25,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 32,54</t>
+          <t>24,38; 32,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,21; 46,15</t>
+          <t>37,32; 45,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,26; 26,18</t>
+          <t>19,16; 26,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,86; 32,47</t>
+          <t>24,85; 32,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,28; 34,19</t>
+          <t>26,24; 34,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,15; 51,27</t>
+          <t>45,06; 51,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 24,75</t>
+          <t>19,61; 24,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,04; 28,01</t>
+          <t>23,05; 27,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,43; 31,87</t>
+          <t>26,93; 32,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,49; 47,92</t>
+          <t>42,35; 47,64</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,4; 30,82</t>
+          <t>23,79; 30,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,3; 33,64</t>
+          <t>27,05; 33,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,25; 40,62</t>
+          <t>33,48; 40,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,56; 52,04</t>
+          <t>22,02; 52,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,42; 32,11</t>
+          <t>25,33; 31,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,61; 29,71</t>
+          <t>23,46; 29,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,99; 41,87</t>
+          <t>34,82; 41,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,64; 54,24</t>
+          <t>48,84; 54,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,46; 30,11</t>
+          <t>25,19; 30,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,34; 30,61</t>
+          <t>26,17; 30,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,08; 40,1</t>
+          <t>35,3; 40,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,9; 51,77</t>
+          <t>29,16; 51,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,04; 34,27</t>
+          <t>26,27; 34,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,06; 32,69</t>
+          <t>24,9; 32,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,67; 37,35</t>
+          <t>29,32; 37,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,76; 48,42</t>
+          <t>39,34; 48,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,68; 37,48</t>
+          <t>29,89; 38,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,36; 37,97</t>
+          <t>30,38; 37,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,01; 44,38</t>
+          <t>36,38; 44,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,46; 75,99</t>
+          <t>38,45; 76,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,89; 34,61</t>
+          <t>29,25; 34,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,34</t>
+          <t>28,91; 34,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>34,18; 39,78</t>
+          <t>34,0; 39,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,9; 69,39</t>
+          <t>40,99; 70,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,52; 37,51</t>
+          <t>30,61; 37,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,66; 39,39</t>
+          <t>32,27; 39,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,49; 41,59</t>
+          <t>34,56; 41,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,32; 52,47</t>
+          <t>45,63; 52,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,8; 34,54</t>
+          <t>27,75; 34,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,35; 38,85</t>
+          <t>32,33; 38,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,21; 41,75</t>
+          <t>35,11; 41,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,84; 50,72</t>
+          <t>36,7; 50,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,88; 34,62</t>
+          <t>29,91; 34,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,28; 37,94</t>
+          <t>33,51; 38,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,67; 40,75</t>
+          <t>35,76; 40,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>41,69; 50,21</t>
+          <t>41,42; 50,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,88; 30,5</t>
+          <t>26,9; 30,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,83; 31,45</t>
+          <t>27,84; 31,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,97; 36,78</t>
+          <t>33,01; 36,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,48; 47,75</t>
+          <t>33,83; 47,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,48; 30,88</t>
+          <t>27,54; 30,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,4; 32,92</t>
+          <t>29,73; 33,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,27; 39,0</t>
+          <t>35,21; 39,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,72; 59,35</t>
+          <t>46,02; 59,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,61; 30,05</t>
+          <t>27,57; 30,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,34; 31,73</t>
+          <t>29,42; 31,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,79; 37,42</t>
+          <t>34,7; 37,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>41,74; 51,02</t>
+          <t>41,91; 50,97</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue una limpieza de boca</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103434</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>133337</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>148481</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>255632</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>120303</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>182535</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>164500</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>313992</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>223737</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>315872</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>312981</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>569624</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>85041; 123408</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>113884; 155013</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>127981; 168853</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>228120; 280321</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>102885; 140324</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>158225; 208060</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>142819; 185849</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>293568; 333395</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>198991; 251955</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>286244; 347197</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>287970; 345156</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>534817; 601640</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>194345</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>261371</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>302806</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>467618</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>228974</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>238073</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>330077</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>486532</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>423319</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>499444</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>632883</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>954150</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>171784; 221620</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>234278; 289526</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>273310; 330218</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>256898; 606972</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>203694; 255936</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>211095; 264235</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>301659; 361964</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>460228; 514201</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>384478; 460759</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>462187; 541174</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>593993; 676938</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>615020; 1093423</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>164255</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>182132</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>183636</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>301860</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>195609</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>230692</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>233836</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>491764</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>359864</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>412823</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>417471</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>793624</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>143204; 187722</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>158345; 205122</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>161360; 205845</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>269954; 332465</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>174442; 221750</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>206129; 257030</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>210937; 258454</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>354535; 701190</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>330137; 392146</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>380069; 449163</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>384231; 447844</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>659330; 1139968</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>240408</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>287022</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>293529</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>435504</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>251999</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>331835</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>337860</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>489922</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>492408</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>618857</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>631389</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>925426</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>217227; 265225</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>259637; 314590</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>267060; 319447</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>406118; 470174</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>225594; 280081</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>301737; 361453</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>307839; 364514</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>390116; 539364</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>455523; 527552</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>582379; 661560</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>589895; 670786</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>808865; 981832</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2518</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1453</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1906</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>702443</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>863862</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>928451</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1460614</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>796886</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>983135</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1066273</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1782210</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1499329</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1846997</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1994724</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3242824</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>660275; 751819</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>810594; 914182</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>879600; 976764</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1134610; 1595896</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>754103; 843476</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>935900; 1040413</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1009448; 1119982</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1646831; 2130632</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1431757; 1566168</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1782601; 1927511</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1919510; 2064428</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2905594; 3533389</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>